--- a/report_template/minMonthlyReport.xlsx
+++ b/report_template/minMonthlyReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>底色說明</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>維修</t>
-  </si>
-  <si>
-    <t>定保</t>
   </si>
   <si>
     <t>異常</t>
@@ -75,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +93,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -113,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,6 +136,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -161,20 +178,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,6 +286,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,19 +510,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -480,22 +531,21 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
